--- a/data/trans_camb/P38A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Provincia-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_camb/P38A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 4,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 5,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 3,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 3,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,2; 2,5</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,5%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 5,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 6,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 4,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,82; 2,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 3,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 2,83</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,12</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 5,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 9,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 4,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 8,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 4,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 7,97</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 6,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 11,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 5,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 9,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 4,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 9,01</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,88</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,63; 12,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 12,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 8,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,98; 7,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,12; 9,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 8,71</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,45; 15,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 15,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 9,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,96; 8,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,75; 11,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 10,28</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,37</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,34; -1,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; 3,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,35; 0,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,6; 0,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,04; -1,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,82; 0,1</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,32%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,85%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; -1,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 3,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,81; 0,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,18; 0,06</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,05; -2,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,51; 0,13</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,6; -0,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 8,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; 0,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 5,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,3; -1,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 5,67</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,67%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,38%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,55; -0,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 9,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,57; 0,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 5,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,77; -1,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 6,23</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,3</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,62</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,67; -12,65</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,73; -0,67</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,98; -9,96</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 2,36</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; -12,49</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,65; 0,53</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,03%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,58%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,7%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,86%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; -14,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,82; -0,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,01; -10,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 2,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,75; -13,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 0,59</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,51</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,16</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,35</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,38; 14,02</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,02; -11,69</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,46; 15,55</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,95; -5,24</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,88; 13,84</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,64; -9,4</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,29%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,17%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,62%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,88; 18,4</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,26; -15,02</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,23; 19,47</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,58; -6,51</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,82; 17,57</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,43; -11,83</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; -0,01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,48; -1,06</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 1,63</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 0,64</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 0,34</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; -0,52</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; -0,02</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; -1,26</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 1,82</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 0,72</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 0,39</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; -0,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Provincia-trans_camb.xlsx
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,35</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,69; -6,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 12,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; 3,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,46; 14,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,7; -3,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 12,06</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,55%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,11; -7,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 14,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,01; 3,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,06; 17,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,24; -4,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,34; 14,15</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 5,88</t>
+          <t>-6,1; 5,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,14</t>
+          <t>-5,38; 2,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,5</t>
+          <t>-4,86; 2,12</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>-1,06%</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 6,97</t>
+          <t>-6,88; 6,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 2,37</t>
+          <t>-5,78; 2,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 2,83</t>
+          <t>-5,36; 2,4</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>4,94</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,83</t>
+          <t>-0,58; 9,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,22</t>
+          <t>1,92; 8,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,97</t>
+          <t>2,17; 7,8</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,02; 11,37</t>
+          <t>-0,59; 11,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 9,15</t>
+          <t>2,03; 9,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,01</t>
+          <t>2,38; 8,76</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,83</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 12,62</t>
+          <t>6,01; 16,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 12,49</t>
+          <t>-0,92; 15,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 8,15</t>
+          <t>0,03; 8,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 7,44</t>
+          <t>-37,42; 7,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,33</t>
+          <t>4,8; 11,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 8,71</t>
+          <t>-20,85; 9,09</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>-9,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>-0,42%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,45; 15,65</t>
+          <t>7,21; 22,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 15,24</t>
+          <t>-0,28; 20,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 9,45</t>
+          <t>0,08; 9,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 8,5</t>
+          <t>-42,23; 8,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,04</t>
+          <t>5,58; 13,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 10,28</t>
+          <t>-24,45; 10,73</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-4,02</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 3,04</t>
+          <t>-11,13; 3,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 0,12</t>
+          <t>-9,74; 0,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,1</t>
+          <t>-8,27; 0,32</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,32%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-4,47%</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 3,54</t>
+          <t>-12,46; 3,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 0,06</t>
+          <t>-10,16; 0,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 0,13</t>
+          <t>-9,09; 0,33</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 8,36</t>
+          <t>-1,01; 8,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 5,22</t>
+          <t>-1,72; 5,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 5,67</t>
+          <t>-0,37; 5,63</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,39</t>
+          <t>-1,06; 9,32</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,62</t>
+          <t>-1,77; 5,62</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 6,23</t>
+          <t>-0,39; 6,2</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-2,5</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,73; -0,67</t>
+          <t>-11,76; -1,49</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 2,36</t>
+          <t>-3,61; 4,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,53</t>
+          <t>-6,06; 1,42</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>-0,2%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>-2,73%</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,82; -0,81</t>
+          <t>-12,87; -1,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,54</t>
+          <t>-3,84; 4,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 0,59</t>
+          <t>-6,57; 1,57</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-17,51</t>
+          <t>-30,47</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-13,35</t>
+          <t>-21,03</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-30,02; -11,69</t>
+          <t>-56,65; -12,04</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -5,24</t>
+          <t>-12,85; -4,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-20,64; -9,4</t>
+          <t>-43,46; -9,47</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
+          <t>-38,79%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>-26,18%</t>
         </is>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-38,26; -15,02</t>
+          <t>-71,41; -15,37</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-16,58; -6,51</t>
+          <t>-15,34; -5,51</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-25,43; -11,83</t>
+          <t>-54,24; -11,89</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-4,44</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -1,06</t>
+          <t>-25,55; -1,28</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,64</t>
+          <t>-7,41; 1,09</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,23; -0,52</t>
+          <t>-14,56; -0,77</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>-8,97%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-2,4%</t>
+          <t>-5,07%</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -1,26</t>
+          <t>-29,95; -1,49</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,72</t>
+          <t>-8,21; 1,22</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,59</t>
+          <t>-16,67; -0,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -6,52</t>
+          <t>-20,19; -6,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 12,06</t>
+          <t>-0,64; 12,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 3,3</t>
+          <t>-8,18; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 14,97</t>
+          <t>6,63; 15,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,7; -3,63</t>
+          <t>-12,36; -3,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 12,06</t>
+          <t>4,63; 12,46</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,11; -7,77</t>
+          <t>-22,79; -8,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 14,24</t>
+          <t>-0,71; 14,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 3,84</t>
+          <t>-9,02; 3,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,89</t>
+          <t>7,32; 18,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -4,32</t>
+          <t>-13,84; -3,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 14,15</t>
+          <t>5,21; 14,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 4,82</t>
+          <t>-4,24; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 5,13</t>
+          <t>-6,3; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,95</t>
+          <t>-2,65; 4,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 2,12</t>
+          <t>-5,19; 2,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,0</t>
+          <t>-2,05; 3,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 2,12</t>
+          <t>-4,53; 2,25</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 5,67</t>
+          <t>-4,8; 5,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 6,03</t>
+          <t>-7,12; 5,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,31</t>
+          <t>-2,82; 4,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 2,35</t>
+          <t>-5,53; 2,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,4</t>
+          <t>-2,25; 3,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,4</t>
+          <t>-5,04; 2,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,64</t>
+          <t>-2,86; 5,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 9,5</t>
+          <t>-0,23; 9,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,68</t>
+          <t>-3,11; 4,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,22</t>
+          <t>1,8; 8,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,33</t>
+          <t>-2,18; 4,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,8</t>
+          <t>1,94; 7,78</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 6,58</t>
+          <t>-3,15; 6,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 11,09</t>
+          <t>-0,24; 11,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,18</t>
+          <t>-3,27; 5,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 9,17</t>
+          <t>2,03; 9,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 4,87</t>
+          <t>-2,38; 4,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,76</t>
+          <t>2,23; 8,86</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 16,85</t>
+          <t>6,94; 16,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 15,82</t>
+          <t>-0,17; 15,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 8,24</t>
+          <t>0,2; 8,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 7,22</t>
+          <t>-37,78; 7,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,36</t>
+          <t>4,77; 11,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 9,09</t>
+          <t>-23,32; 9,34</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,21; 22,05</t>
+          <t>8,19; 21,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 20,81</t>
+          <t>0,11; 19,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,08; 9,61</t>
+          <t>0,28; 9,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 8,15</t>
+          <t>-42,74; 8,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,92</t>
+          <t>5,41; 14,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 10,73</t>
+          <t>-27,71; 11,17</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,34; -1,32</t>
+          <t>-15,94; -1,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 3,05</t>
+          <t>-10,72; 3,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 0,72</t>
+          <t>-9,45; 0,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,61</t>
+          <t>-9,35; 0,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,04; -1,94</t>
+          <t>-11,24; -2,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 0,32</t>
+          <t>-8,37; 0,45</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -1,61</t>
+          <t>-17,84; -2,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 3,6</t>
+          <t>-12,1; 4,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 0,86</t>
+          <t>-9,98; 0,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 0,63</t>
+          <t>-9,96; 0,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,05; -2,26</t>
+          <t>-12,28; -2,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 0,33</t>
+          <t>-9,13; 0,51</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -0,46</t>
+          <t>-11,74; -0,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 8,22</t>
+          <t>-1,6; 8,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 0,94</t>
+          <t>-7,89; 0,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 5,23</t>
+          <t>-1,46; 5,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -1,31</t>
+          <t>-8,18; -0,9</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 5,63</t>
+          <t>-0,43; 5,47</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,55; -0,45</t>
+          <t>-12,7; -0,82</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 9,32</t>
+          <t>-1,7; 9,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 0,99</t>
+          <t>-8,19; 1,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 5,62</t>
+          <t>-1,48; 5,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,77; -1,43</t>
+          <t>-8,77; -1,01</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 6,2</t>
+          <t>-0,45; 5,95</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-21,67; -12,65</t>
+          <t>-21,31; -12,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,76; -1,49</t>
+          <t>-12,06; -1,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-16,98; -9,96</t>
+          <t>-17,09; -9,91</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 4,09</t>
+          <t>-3,52; 4,24</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -12,49</t>
+          <t>-18,23; -12,77</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1,42</t>
+          <t>-5,71; 2,0</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -14,33</t>
+          <t>-23,49; -14,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -1,68</t>
+          <t>-13,27; -1,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -10,71</t>
+          <t>-18,17; -10,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 4,46</t>
+          <t>-3,74; 4,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -13,87</t>
+          <t>-19,71; -14,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 1,57</t>
+          <t>-6,21; 2,21</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>6,38; 14,02</t>
+          <t>6,23; 13,75</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-56,65; -12,04</t>
+          <t>-58,21; -11,68</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>9,46; 15,55</t>
+          <t>9,0; 15,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-12,85; -4,39</t>
+          <t>-12,24; -4,09</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>8,88; 13,84</t>
+          <t>9,07; 13,82</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-43,46; -9,47</t>
+          <t>-42,18; -9,72</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>7,88; 18,4</t>
+          <t>7,65; 17,99</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-71,41; -15,37</t>
+          <t>-72,83; -14,77</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,23; 19,47</t>
+          <t>10,7; 19,24</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-15,34; -5,51</t>
+          <t>-14,6; -5,05</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>10,82; 17,57</t>
+          <t>11,06; 17,41</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-54,24; -11,89</t>
+          <t>-53,27; -12,12</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,01</t>
+          <t>-3,49; 0,11</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -1,28</t>
+          <t>-24,37; -0,99</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,63</t>
+          <t>-1,34; 1,6</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,09</t>
+          <t>-8,07; 1,06</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,34</t>
+          <t>-1,91; 0,37</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-14,56; -0,77</t>
+          <t>-14,0; -0,63</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,07; -0,02</t>
+          <t>-4,06; 0,14</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-29,95; -1,49</t>
+          <t>-28,58; -1,16</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,82</t>
+          <t>-1,48; 1,81</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 1,22</t>
+          <t>-8,98; 1,18</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,39</t>
+          <t>-2,16; 0,43</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -0,88</t>
+          <t>-15,94; -0,73</t>
         </is>
       </c>
     </row>
